--- a/hiqu/Performance Evaluation/September 2024/Dev/Arslan Khalid.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Arslan Khalid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F34D86-338D-4007-9254-EA4BB2B12C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97173C4C-6F11-4852-9337-F772C73CAEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>Employee Name</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Diff %</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Overall Performance</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>Period: September 2024</t>
   </si>
   <si>
-    <t>Bug Fixing</t>
-  </si>
-  <si>
     <t>023</t>
   </si>
   <si>
@@ -304,16 +298,53 @@
   </si>
   <si>
     <t>Client Items</t>
+  </si>
+  <si>
+    <t>Associate vendor/stations/sites to multiple pay to</t>
+  </si>
+  <si>
+    <t>APWORKS 2024.2 - PHASE 3</t>
+  </si>
+  <si>
+    <t>Broadcast Invoice: Invoice View UI</t>
+  </si>
+  <si>
+    <t>Broadcast Invoice: Manage Invoice Documents</t>
+  </si>
+  <si>
+    <t>Broadcast Invoice: Manage Invoice Models List</t>
+  </si>
+  <si>
+    <t>Broadcast Invoice: Manage Non-Mapped Broadcast Invoices</t>
+  </si>
+  <si>
+    <t>Broadcast Invoice: User Group Management Changes</t>
+  </si>
+  <si>
+    <t>separate node for "Broadcast Invoices"</t>
+  </si>
+  <si>
+    <t>Analysis of the new project/assignment/task</t>
+  </si>
+  <si>
+    <t>Meetings, mails, communication, TFS, Interviews</t>
+  </si>
+  <si>
+    <t>Regular bug fixing activity</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +424,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -568,7 +605,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -576,8 +613,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,12 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,11 +667,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,6 +727,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,32 +748,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{8180B592-B2B1-4676-AFAD-227D0E36D85D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C6FF6618-242E-45B7-94CB-EA40EC999215}"/>
@@ -1051,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,30 +1115,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="33"/>
+      <c r="B2" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="40"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1094,11 +1146,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1106,11 +1158,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1118,11 +1170,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1130,316 +1182,320 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="39">
+        <v>62</v>
+      </c>
+      <c r="C10" s="46">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.33150684931506852</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+        <v>0.38356164383561642</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="B13" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>7</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="E16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="1">
         <v>3</v>
       </c>
-      <c r="J16" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="31"/>
+      <c r="J16" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>38</v>
+      <c r="B17" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="E17" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="1">
         <v>5</v>
       </c>
-      <c r="J17" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="31"/>
+      <c r="J17" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>39</v>
+      <c r="B18" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="E18" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="1">
         <v>7</v>
       </c>
-      <c r="J18" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="31"/>
+      <c r="J18" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>40</v>
+      <c r="B19" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>8</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="E19" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="1">
         <v>7</v>
       </c>
-      <c r="J19" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="31"/>
+      <c r="J19" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>41</v>
+      <c r="B20" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="1">
         <v>6</v>
       </c>
-      <c r="J20" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="31"/>
+      <c r="J20" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>42</v>
+      <c r="B21" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>7</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="E21" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="1">
         <v>7</v>
       </c>
-      <c r="J21" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="31"/>
+      <c r="J21" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>56</v>
+      <c r="B22" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="30"/>
-      <c r="J22" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="31"/>
+      <c r="E22" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="27"/>
+      <c r="J22" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>57</v>
+      <c r="B23" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="1"/>
-      <c r="J23" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="31"/>
+      <c r="J23" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
+      <c r="B25" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="E27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="G27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="I27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="J27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="K27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="L27" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="M27" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="N27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="27" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
+      <c r="B28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
         <v>22</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1451,14 +1507,18 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+      <c r="B29" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2">
         <v>22</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>18</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1470,14 +1530,18 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="B30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1489,14 +1553,18 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1">
+      <c r="B31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2">
         <v>22</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2">
+        <v>17</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1508,14 +1576,18 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
+      <c r="B32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1527,14 +1599,18 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
+      <c r="B33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1546,14 +1622,18 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1"/>
+      <c r="B34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1565,14 +1645,18 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1"/>
+      <c r="B35" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1620,16 +1704,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:X14"/>
+  <dimension ref="B2:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="5"/>
     <col min="5" max="5" width="11.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="5" customWidth="1"/>
@@ -1643,72 +1727,73 @@
     <col min="14" max="14" width="1.85546875" style="5" customWidth="1"/>
     <col min="15" max="17" width="9.28515625" style="5"/>
     <col min="18" max="18" width="2.28515625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="33"/>
     <col min="20" max="20" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="54" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
+      <c r="B4" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1717,56 +1802,56 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="O6" s="51" t="s">
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="O6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="S6" s="13" t="s">
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="S6" s="34" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="5"/>
-      <c r="U6" s="48" t="s">
+      <c r="U6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="G7" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
       <c r="K7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1785,15 +1870,15 @@
       <c r="Q7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="14" t="s">
-        <v>23</v>
+      <c r="S7" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="W7" s="10" t="s">
         <v>14</v>
@@ -1803,8 +1888,8 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>76</v>
+      <c r="B8" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -1819,7 +1904,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="S8" s="36"/>
       <c r="T8" s="5"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1828,18 +1913,22 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="C9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="15">
+      <c r="L9" s="2">
+        <v>21</v>
+      </c>
+      <c r="M9" s="13">
         <f t="shared" ref="M9" si="0">IF(K9=0,0,(L9-K9)/K9)</f>
         <v>0</v>
       </c>
@@ -1847,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="15">
-        <f>(P9-O9)/IF(O9=0,P9,O9)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>IF(O9=0,0,P9/O9)</f>
+        <v>0</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="15">
-        <f>IF((K9+O9)=0,1,((L9+P9)-(K9+O9))/(K9+O9))</f>
-        <v>1</v>
+      <c r="S9" s="36">
+        <f>D9+E9+F9+G9+H9+I9+L9+P9</f>
+        <v>24</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="2">
@@ -1875,23 +1964,29 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="2"/>
+      <c r="L10" s="32">
+        <v>4</v>
+      </c>
+      <c r="M10" s="13"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="2"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="36">
+        <f t="shared" ref="S10:S19" si="1">D10+E10+F10+G10+H10+I10+L10+P10</f>
+        <v>4</v>
+      </c>
+      <c r="T10" s="5"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -1899,113 +1994,387 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="2"/>
+      <c r="L11" s="32">
+        <v>2</v>
+      </c>
+      <c r="M11" s="13"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="2"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T11" s="5"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="7"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="32">
+        <v>2</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
-        <f>SUM(D8:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <f>SUM(E8:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="17">
-        <f>SUM(F8:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <f>SUM(G8:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <f>SUM(H8:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <f>SUM(I8:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" ref="K13:L13" si="1">SUM(K8:K10)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="32">
+        <v>2</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" ref="M13" si="2">IF(K13=0,0,(L13-K13)/K13)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17">
-        <f t="shared" ref="O13:P13" si="3">SUM(O8:O10)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="Q13" s="18">
-        <f t="shared" ref="Q13" si="4">IF(O13=0,0,(P13-O13)/O13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17">
-        <f t="shared" ref="U13:W13" si="5">SUM(U8:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="17">
-        <f>SUM(X8:X10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="32">
+        <v>4</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="32">
+        <v>22</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="36">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="13"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="32">
+        <v>6</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30">
+        <v>3</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="13"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="13"/>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>IF(O19=0,0,P19/O19)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="36">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="7"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S21" s="37"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15">
+        <f t="shared" ref="D22:I22" si="2">SUM(D8:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K22" s="15">
+        <f>SUM(K8:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <f>SUM(L8:L19)</f>
+        <v>63</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" ref="M22" si="3">IF(K22=0,0,(L22-K22)/K22)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15">
+        <f>SUM(O8:O19)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <f>SUM(P8:P19)</f>
+        <v>79</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" ref="Q22" si="4">IF(O22=0,0,(P22-O22)/O22)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="38">
+        <f>SUM(S8:S20)</f>
+        <v>148</v>
+      </c>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15">
+        <f>SUM(U8:U19)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <f>SUM(V8:V19)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <f>SUM(W8:W19)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <f>SUM(X8:X19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="U6:X6"/>
     <mergeCell ref="B3:R3"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B4:R4"/>
@@ -2014,9 +2383,8 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="U6:X6"/>
   </mergeCells>
-  <conditionalFormatting sqref="U9">
+  <conditionalFormatting sqref="U9:U19">
     <cfRule type="expression" priority="1">
       <formula>U9/$AQ9</formula>
     </cfRule>

--- a/hiqu/Performance Evaluation/September 2024/Dev/Arslan Khalid.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Arslan Khalid.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97173C4C-6F11-4852-9337-F772C73CAEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D89E8C-98C6-4430-9EA3-B5C6A89D90F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
-    <sheet name="Project Portfolio" sheetId="1" r:id="rId2"/>
+    <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
+    <sheet name="September 2024" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
   <si>
     <t>Employee Name</t>
   </si>
@@ -165,9 +166,6 @@
     <t>Overall Commitment</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Database understanding</t>
   </si>
   <si>
@@ -334,6 +332,21 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Jul-Sep</t>
+  </si>
+  <si>
+    <t>Oct-Dec</t>
+  </si>
+  <si>
+    <t>Jan-Mar</t>
+  </si>
+  <si>
+    <t>Apr-Jun</t>
   </si>
 </sst>
 </file>
@@ -427,8 +440,8 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -615,7 +628,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -660,17 +673,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,16 +707,20 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -718,14 +730,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,6 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1101,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,588 +1121,361 @@
     <col min="4" max="14" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="40"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="46">
+        <v>61</v>
+      </c>
+      <c r="C10" s="43">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.38356164383561642</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+        <v>0.39178082191780822</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="1">
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="J16" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="1">
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
         <v>5</v>
       </c>
-      <c r="J17" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="28"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="1">
-        <v>7</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="28"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="1">
-        <v>7</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="1">
-        <v>6</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="28"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="1">
-        <v>7</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="28"/>
+      <c r="B21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="27"/>
-      <c r="J22" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="28"/>
+      <c r="B22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
+      <c r="B23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="J23" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="28"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2">
-        <v>20</v>
-      </c>
-      <c r="D29" s="2">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
-        <v>18</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2">
-        <v>20</v>
-      </c>
-      <c r="D31" s="2">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2">
-        <v>17</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
+  <mergeCells count="10">
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B14:N14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1703,11 +1483,719 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49913367-0C81-47D2-A602-F183CADA5D5D}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C6:C13">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ECBF4C7B-C05D-4B82-B370-FE72098A2542}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C25">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D2E7A61C-5C9D-441A-9E4E-0FA41AFA7B5F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C37">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7EABA8F8-B697-472A-8540-22408F11765B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EDD05524-BD41-4BD9-9232-C2FFFF02BE4F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AA0C51F5-D05B-4CB3-B10C-54EF65E8F66F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34CA936F-3F9A-4F3A-8517-BE86F1BFA978}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CD69EA13-761E-4714-B93A-0F6BC798FD22}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD572979-A334-4A38-AE4F-008D4CBC6FD6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF6C3313-846E-4880-A690-DE2F47D3A123}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F13">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A633C56-332A-4E75-A42F-692F581AFC0C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F25">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9BED5D22-22BF-4F9B-8255-8AFDCDF30AB7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F37">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67C101B0-2938-4AFD-A989-E73D642D2908}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ECBF4C7B-C05D-4B82-B370-FE72098A2542}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D2E7A61C-5C9D-441A-9E4E-0FA41AFA7B5F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7EABA8F8-B697-472A-8540-22408F11765B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:C37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EDD05524-BD41-4BD9-9232-C2FFFF02BE4F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AA0C51F5-D05B-4CB3-B10C-54EF65E8F66F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D18:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{34CA936F-3F9A-4F3A-8517-BE86F1BFA978}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CD69EA13-761E-4714-B93A-0F6BC798FD22}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DD572979-A334-4A38-AE4F-008D4CBC6FD6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF6C3313-846E-4880-A690-DE2F47D3A123}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A633C56-332A-4E75-A42F-692F581AFC0C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F6:F13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9BED5D22-22BF-4F9B-8255-8AFDCDF30AB7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F18:F25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67C101B0-2938-4AFD-A989-E73D642D2908}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F30:F37</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:X23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,73 +2215,73 @@
     <col min="14" max="14" width="1.85546875" style="5" customWidth="1"/>
     <col min="15" max="17" width="9.28515625" style="5"/>
     <col min="18" max="18" width="2.28515625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="33"/>
+    <col min="19" max="19" width="9.140625" style="30"/>
     <col min="20" max="20" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="49" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
+      <c r="B4" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1802,56 +2290,56 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59" t="s">
+      <c r="I6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="O6" s="58" t="s">
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="O6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="S6" s="34" t="s">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="S6" s="31" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="5"/>
-      <c r="U6" s="51" t="s">
+      <c r="U6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="53"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="G7" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="K7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1870,8 +2358,8 @@
       <c r="Q7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="35" t="s">
-        <v>98</v>
+      <c r="S7" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="10" t="s">
@@ -1888,8 +2376,8 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>88</v>
+      <c r="B8" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -1904,7 +2392,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="36"/>
+      <c r="S8" s="33"/>
       <c r="T8" s="5"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1913,24 +2401,26 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>32</v>
+      </c>
       <c r="L9" s="2">
         <v>21</v>
       </c>
       <c r="M9" s="13">
-        <f t="shared" ref="M9" si="0">IF(K9=0,0,(L9-K9)/K9)</f>
-        <v>0</v>
+        <f>IF(K9=0,0,L9/K9)</f>
+        <v>0.65625</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -1943,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="36">
+      <c r="S9" s="33">
         <f>D9+E9+F9+G9+H9+I9+L9+P9</f>
         <v>24</v>
       </c>
@@ -1964,26 +2454,31 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="32">
+      <c r="K10" s="2">
+        <v>30</v>
+      </c>
+      <c r="L10" s="29">
         <v>4</v>
       </c>
-      <c r="M10" s="13"/>
+      <c r="M10" s="13">
+        <f>IF(K10=0,0,L10/K10)</f>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="36">
-        <f t="shared" ref="S10:S19" si="1">D10+E10+F10+G10+H10+I10+L10+P10</f>
+      <c r="S10" s="33">
+        <f t="shared" ref="S10:S19" si="0">D10+E10+F10+G10+H10+I10+L10+P10</f>
         <v>4</v>
       </c>
       <c r="T10" s="5"/>
@@ -1994,26 +2489,31 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="32">
+      <c r="K11" s="2">
+        <v>4</v>
+      </c>
+      <c r="L11" s="29">
         <v>2</v>
       </c>
-      <c r="M11" s="13"/>
+      <c r="M11" s="13">
+        <f>IF(K11=0,0,L11/K11)</f>
+        <v>0.5</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="36">
-        <f t="shared" si="1"/>
+      <c r="S11" s="33">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T11" s="5"/>
@@ -2024,17 +2524,19 @@
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="32">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
         <v>2</v>
       </c>
       <c r="M12" s="13"/>
@@ -2042,8 +2544,8 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="36">
-        <f t="shared" si="1"/>
+      <c r="S12" s="33">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T12" s="5"/>
@@ -2054,17 +2556,17 @@
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="32">
+      <c r="K13" s="39"/>
+      <c r="L13" s="29">
         <v>2</v>
       </c>
       <c r="M13" s="13"/>
@@ -2072,8 +2574,8 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="36">
-        <f t="shared" si="1"/>
+      <c r="S13" s="33">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T13" s="5"/>
@@ -2084,26 +2586,31 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="32">
+      <c r="K14" s="2">
+        <v>12</v>
+      </c>
+      <c r="L14" s="29">
         <v>4</v>
       </c>
-      <c r="M14" s="13"/>
+      <c r="M14" s="13">
+        <f>IF(K14=0,0,L14/K14)</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="36">
-        <f t="shared" si="1"/>
+      <c r="S14" s="33">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="T14" s="5"/>
@@ -2114,26 +2621,31 @@
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="C15" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="32">
+      <c r="K15" s="2">
+        <v>4</v>
+      </c>
+      <c r="L15" s="29">
         <v>22</v>
       </c>
-      <c r="M15" s="13"/>
+      <c r="M15" s="13">
+        <f>IF(K15=0,0,L15/K15)</f>
+        <v>5.5</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="36">
-        <f t="shared" si="1"/>
+      <c r="S15" s="33">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="T15" s="5"/>
@@ -2143,24 +2655,24 @@
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="32"/>
+      <c r="L16" s="29"/>
       <c r="M16" s="13"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="36"/>
+      <c r="S16" s="33"/>
       <c r="T16" s="5"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -2169,17 +2681,17 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="32">
+      <c r="L17" s="29">
         <v>6</v>
       </c>
       <c r="M17" s="13"/>
@@ -2187,8 +2699,8 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="36">
-        <f t="shared" si="1"/>
+      <c r="S17" s="33">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="T17" s="5"/>
@@ -2199,26 +2711,26 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30">
+      <c r="C18" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27">
         <v>3</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="32"/>
+      <c r="L18" s="29"/>
       <c r="M18" s="13"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="36">
-        <f t="shared" si="1"/>
+      <c r="S18" s="33">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="T18" s="5"/>
@@ -2229,17 +2741,17 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="32"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="13"/>
       <c r="O19" s="2">
         <v>0</v>
@@ -2252,8 +2764,8 @@
         <v>0</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="36">
-        <f t="shared" si="1"/>
+      <c r="S19" s="33">
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="T19" s="5"/>
@@ -2279,7 +2791,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="36"/>
+      <c r="S20" s="33"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -2287,7 +2799,7 @@
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S21" s="37"/>
+      <c r="S21" s="34"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
@@ -2300,40 +2812,40 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15">
-        <f t="shared" ref="D22:I22" si="2">SUM(D8:D19)</f>
+        <f t="shared" ref="D22:I22" si="1">SUM(D8:D19)</f>
         <v>0</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K22" s="15">
         <f>SUM(K8:K19)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="L22" s="15">
         <f>SUM(L8:L19)</f>
         <v>63</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" ref="M22" si="3">IF(K22=0,0,(L22-K22)/K22)</f>
-        <v>0</v>
+        <f t="shared" ref="M22" si="2">IF(K22=0,0,(L22-K22)/K22)</f>
+        <v>-0.23170731707317074</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="15">
@@ -2345,11 +2857,11 @@
         <v>79</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" ref="Q22" si="4">IF(O22=0,0,(P22-O22)/O22)</f>
+        <f t="shared" ref="Q22" si="3">IF(O22=0,0,(P22-O22)/O22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="15"/>
-      <c r="S22" s="38">
+      <c r="S22" s="35">
         <f>SUM(S8:S20)</f>
         <v>148</v>
       </c>
